--- a/data/financial_statements/sofp/CFG.xlsx
+++ b/data/financial_statements/sofp/CFG.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -119,9 +236,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -174,12 +288,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -476,580 +587,595 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM33"/>
+  <dimension ref="A1:AN33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:40">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
+        <v>10850000000</v>
+      </c>
+      <c r="C2">
         <v>8421000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>6983000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>10621000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>9474000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>14005000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>13042000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>14968000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>13039000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>9544000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>7921000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>4338000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>3683000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>4000000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>3221000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>2603000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>4222000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>4133000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>3979000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>4001000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>3224000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>2407000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>4600000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>4344000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>4143000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>3635000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>4382000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>2389000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>3441000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>2119000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>3055000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>5619000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>3646000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>3181000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>5665000000</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:40">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
+        <v>166511000000</v>
+      </c>
+      <c r="C3">
         <v>164543000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>164646000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>142022000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>139347000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>138738000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>137374000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>139348000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>137689000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>134787000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>136179000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>132956000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>124849000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>122632000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>121037000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>120225000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>120960000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>118941000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>116843000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>114980000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>113323000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>112558000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>113664000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>111900000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>111201000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>108388000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>107669000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>103068000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>101632000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>98769000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>100028000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>99287000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>96142000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>95004000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>93546000000</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:40">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
+        <v>844000000</v>
+      </c>
+      <c r="C4">
         <v>827000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>885000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>793000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>768000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>732000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>735000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>743000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>759000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>747000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>751000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>746000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>761000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>747000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>740000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>746000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>791000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>753000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>720000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>687000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>685000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>618000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>600000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>582000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>601000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>540000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>551000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>570000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>595000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>560000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>580000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>584000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>595000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>541000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>560000000</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:40">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
+        <v>33841000000</v>
+      </c>
+      <c r="C5">
         <v>33549000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>34528000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>27375000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>28309000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>27403000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>27294000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>27462000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>26177000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>26124000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>25657000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>26352000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>23815000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>25602000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>25898000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>25651000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>25075000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>25485000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>25513000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>25433000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>25733000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>25742000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>25115000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>25996000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>25610000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>25704000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>24398000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>24057000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>24075000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>24354000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>25095000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>25086000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>24704000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>24848000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>24823000000</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:40">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
+        <v>8370000000</v>
+      </c>
+      <c r="C6">
         <v>8160000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>8081000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>7232000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>7116000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>7065000000</v>
-      </c>
-      <c r="G6">
-        <v>7050000000</v>
       </c>
       <c r="H6">
         <v>7050000000</v>
@@ -1067,25 +1193,25 @@
         <v>7050000000</v>
       </c>
       <c r="M6">
-        <v>7044000000</v>
+        <v>7050000000</v>
       </c>
       <c r="N6">
         <v>7044000000</v>
       </c>
       <c r="O6">
-        <v>7040000000</v>
+        <v>7044000000</v>
       </c>
       <c r="P6">
         <v>7040000000</v>
       </c>
       <c r="Q6">
+        <v>7040000000</v>
+      </c>
+      <c r="R6">
         <v>6923000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>6946000000</v>
-      </c>
-      <c r="S6">
-        <v>6887000000</v>
       </c>
       <c r="T6">
         <v>6887000000</v>
@@ -1100,7 +1226,7 @@
         <v>6887000000</v>
       </c>
       <c r="X6">
-        <v>6876000000</v>
+        <v>6887000000</v>
       </c>
       <c r="Y6">
         <v>6876000000</v>
@@ -1136,337 +1262,346 @@
         <v>6876000000</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
+        <v>6876000000</v>
+      </c>
+      <c r="AK6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
       </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:40">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
+        <v>17167000000</v>
+      </c>
+      <c r="C7">
         <v>17605000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>18572000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>14675000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>12869000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>13069000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>12651000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>12614000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>11674000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>10520000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>10237000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>9615000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>9264000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>8337000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>8034000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>7680000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>6769000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>6473000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>5468000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>5466000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>5708000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>5551000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>5141000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>4931000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>5232000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>5507000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>5689000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>5506000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>5030000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>4888000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>4672000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>4702000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>4540000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>4072000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>4474000000</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:40">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
+        <v>60222000000</v>
+      </c>
+      <c r="C8">
         <v>60141000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>62066000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>50075000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>49062000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>48269000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>47730000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>47869000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>45660000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>44441000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>43695000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>43763000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>40884000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>41730000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>41712000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>41117000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>39558000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>39657000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>38588000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>38473000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>39013000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>38798000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>37743000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>38385000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>38319000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>38627000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>37514000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>37009000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>36576000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>36678000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>37223000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>37248000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>36715000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>36337000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>36733000000</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:40">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
+        <v>226733000000</v>
+      </c>
+      <c r="C9">
         <v>224684000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>226712000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>192097000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>188409000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>187007000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>185104000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>187217000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>183349000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>179228000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>179874000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>176719000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>165733000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>164362000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>162749000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>161342000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>160518000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>158598000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>155431000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>153453000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>152336000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>151356000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>151407000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>150285000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>149520000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>147015000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>145183000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>140077000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>138208000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>135447000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>137251000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>136535000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>132857000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>131341000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>130279000000</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -1477,1031 +1612,1058 @@
       <c r="AM9">
         <v>0</v>
       </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:39">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:40">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
+        <v>3000000</v>
+      </c>
+      <c r="C10">
         <v>263000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>3763000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>25000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>74000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>8000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>62000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>70000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>243000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>252000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>255000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1059000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>274000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1077000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1441000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>679000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1317000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>2380000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>1825000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1809000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>2671000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>1958000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>2433000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>3855000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>4359000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>3412000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>3487000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>4014000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>3432000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>7154000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>10546000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>11425000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>10529000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>11899000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>14509000000</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:40">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
+        <v>180724000000</v>
+      </c>
+      <c r="C11">
         <v>178566000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>178925000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>158776000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>154361000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>152221000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>150636000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>151349000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>147164000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>142921000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>143618000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>133475000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>125313000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>124714000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>124004000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>123916000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>119575000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>117075000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>117073000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>115730000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>115089000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>113235000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>113613000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>112112000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>109804000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>108327000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>106257000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>102606000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>102539000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>101866000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>100615000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>98990000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>95707000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>93463000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>91656000000</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:40">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12">
         <v>265000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>3935000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>948000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2152000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1180000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1827000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>2132000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1753000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1004000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1011000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>2812000000</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:40">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
+        <v>180727000000</v>
+      </c>
+      <c r="C13">
         <v>178829000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>182688000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>158801000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>154435000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>152229000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>150698000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>151419000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>147407000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>143173000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>143873000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>134534000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>125587000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>125791000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>125445000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>124595000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>120892000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>119455000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>118898000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>117539000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>117760000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>115193000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>116046000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>115967000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>114163000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>111739000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>109744000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>106620000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>105971000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>109020000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>111161000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>110415000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>106236000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>105362000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>106165000000</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:40">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
+        <v>15887000000</v>
+      </c>
+      <c r="C14">
         <v>16286000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>14440000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>5894000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>6932000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>6947000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>6957000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>8316000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>8346000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>9109000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>9202000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>16437000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>14047000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>12806000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>11538000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>11725000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>15925000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>15639000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>13641000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>13486000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>11765000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>13400000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>13154000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>11780000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>12790000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>11902000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>11810000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>10035000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>9886000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>4153000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>3890000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>3904000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>4642000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>2062000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>1732000000</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15">
+    <row r="15" spans="1:40">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15">
         <v>689000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>720000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>593000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>629000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>638000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>709000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>782000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>866000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>752000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>767000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>676000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>573000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>430000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>456000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>475000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>571000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>744000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>740000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>744000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>714000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>994000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>961000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>852000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>730000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>637000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>558000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>586000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>493000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>354000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>403000000</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
+    <row r="16" spans="1:40">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK16">
         <v>0</v>
       </c>
       <c r="AM16">
         <v>0</v>
       </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:39">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:40">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
+        <v>6429000000</v>
+      </c>
+      <c r="C17">
         <v>6423000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>5256000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>5328000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>3622000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>3719000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>3530000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>4236000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>4294000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>3839000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>3672000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>3016000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>3032000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>3162000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>2982000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>2815000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>2311000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>2798000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>1969000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>1894000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>1970000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>1910000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>1403000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>1947000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>2106000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>2199000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>2442000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>2605000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>1975000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>2037000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>2056000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>2066000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>2218000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>4180000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>2382000000</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:40">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
+        <v>22316000000</v>
+      </c>
+      <c r="C18">
         <v>22709000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>19696000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>11222000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>10554000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>11355000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>11207000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>13145000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>13269000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>13586000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>13583000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>20235000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>17945000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>16720000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>15287000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>15216000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>18809000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>18867000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>16066000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>15855000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>14306000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>16054000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>15297000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>14471000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>15610000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>15095000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>15213000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>13492000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>12591000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>6827000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>6504000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>6556000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>7353000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>6596000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>4517000000</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:40">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
+        <v>203043000000</v>
+      </c>
+      <c r="C19">
         <v>201538000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>202384000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>170023000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>164989000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>163584000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>161905000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>164564000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>160676000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>156759000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>157456000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>154769000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>143532000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>142511000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>140732000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>139811000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>139701000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>138322000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>134964000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>133394000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>132066000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>131247000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>131343000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>130438000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>129773000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>126834000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>124957000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>120112000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>118562000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>115847000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>117665000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>116971000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>113589000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>111958000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>110682000000</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AL19">
+      <c r="AK19">
         <v>0</v>
       </c>
       <c r="AM19">
         <v>0</v>
       </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:39">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:40">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
+        <v>22142000000</v>
+      </c>
+      <c r="C20">
         <v>22121000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>22100000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>19021000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>19005000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>18981000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>18964000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>18945000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>18940000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>18922000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>18908000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>18901000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>18891000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>18876000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>18860000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>18847000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>18815000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>18816000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>18806000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>18797000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>18781000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>18768000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>18761000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>18751000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>18722000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>18740000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>18735000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>18730000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>18725000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>18718000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>18714000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>18707000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>18676000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>18660000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>18603000000</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
+      <c r="AK20">
         <v>0</v>
       </c>
       <c r="AM20">
         <v>0</v>
       </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:39">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:40">
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>2014000000</v>
@@ -2522,7 +2684,7 @@
         <v>2014000000</v>
       </c>
       <c r="H21">
-        <v>1965000000</v>
+        <v>2014000000</v>
       </c>
       <c r="I21">
         <v>1965000000</v>
@@ -2534,31 +2696,31 @@
         <v>1965000000</v>
       </c>
       <c r="L21">
-        <v>1570000000</v>
+        <v>1965000000</v>
       </c>
       <c r="M21">
         <v>1570000000</v>
       </c>
       <c r="N21">
-        <v>1133000000</v>
+        <v>1570000000</v>
       </c>
       <c r="O21">
         <v>1133000000</v>
       </c>
       <c r="P21">
+        <v>1133000000</v>
+      </c>
+      <c r="Q21">
         <v>1132000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>840000000</v>
-      </c>
-      <c r="R21">
-        <v>543000000</v>
       </c>
       <c r="S21">
         <v>543000000</v>
       </c>
       <c r="T21">
-        <v>247000000</v>
+        <v>543000000</v>
       </c>
       <c r="U21">
         <v>247000000</v>
@@ -2593,19 +2755,22 @@
       <c r="AE21">
         <v>247000000</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
+      <c r="AF21">
+        <v>247000000</v>
+      </c>
+      <c r="AK21">
         <v>0</v>
       </c>
       <c r="AM21">
         <v>0</v>
       </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:39">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:40">
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>6000000</v>
@@ -2710,140 +2875,146 @@
         <v>6000000</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
+        <v>6000000</v>
+      </c>
+      <c r="AK22">
         <v>0</v>
       </c>
       <c r="AM22">
         <v>0</v>
       </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:39">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:40">
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
+        <v>9159000000</v>
+      </c>
+      <c r="C23">
         <v>8748000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>8346000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>8209000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>7978000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>7648000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>7314000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>6866000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>6445000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>6189000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>6068000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>6011000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>6498000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>6229000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>5959000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>5672000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>5385000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>5062000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>4755000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>4437000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>4164000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>3442000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>3191000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>2944000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>2703000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>2483000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>2255000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>2076000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>1913000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>1745000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>1585000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>1448000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>1294000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>1152000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>1346000000</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:40">
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>4920000000</v>
+        <v>5071000000</v>
       </c>
       <c r="C24">
         <v>4920000000</v>
       </c>
       <c r="D24">
-        <v>4918000000</v>
+        <v>4920000000</v>
       </c>
       <c r="E24">
         <v>4918000000</v>
       </c>
       <c r="F24">
-        <v>4718000000</v>
+        <v>4918000000</v>
       </c>
       <c r="G24">
         <v>4718000000</v>
@@ -2852,7 +3023,7 @@
         <v>4718000000</v>
       </c>
       <c r="I24">
-        <v>4623000000</v>
+        <v>4718000000</v>
       </c>
       <c r="J24">
         <v>4623000000</v>
@@ -2864,49 +3035,49 @@
         <v>4623000000</v>
       </c>
       <c r="M24">
+        <v>4623000000</v>
+      </c>
+      <c r="N24">
         <v>4353000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>3953000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>3453000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>3333000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>3133000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>2833000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>2433000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>2283000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>2108000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>1773000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>1548000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>1418000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>1263000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>1108000000</v>
-      </c>
-      <c r="AA24">
-        <v>858000000</v>
       </c>
       <c r="AB24">
         <v>858000000</v>
@@ -2915,493 +3086,505 @@
         <v>858000000</v>
       </c>
       <c r="AD24">
+        <v>858000000</v>
+      </c>
+      <c r="AE24">
         <v>857000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>607000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>357000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>336000000</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
+      <c r="AK24">
         <v>0</v>
       </c>
       <c r="AM24">
         <v>0</v>
       </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:39">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AL25">
+    <row r="25" spans="1:40">
+      <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK25">
         <v>0</v>
       </c>
       <c r="AM25">
         <v>0</v>
       </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:39">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:40">
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
+        <v>21676000000</v>
+      </c>
+      <c r="C26">
         <v>21132000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>22314000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>20060000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>21406000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>21409000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>21185000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>20688000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>20708000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>20504000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>20453000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>20380000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>20631000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>20718000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>20884000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>20399000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>19977000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>19733000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>19924000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>19812000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>20023000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>19862000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>19817000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>19600000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>19500000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>19934000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>19979000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>19718000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>19399000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>19353000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>19339000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>19564000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>19268000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>19383000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>19597000000</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:40">
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
+        <v>23690000000</v>
+      </c>
+      <c r="C27">
         <v>23146000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>24328000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>22074000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>23420000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>23423000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>23199000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>22653000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>22673000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>22469000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>22418000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>21950000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>22201000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>21851000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>22017000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>21531000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>20817000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>20276000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>20467000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>20059000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>20270000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>20109000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>20064000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>19847000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>19747000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>20181000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>20226000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>19965000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>19646000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>19600000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>19586000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>19564000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>19268000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>19383000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>19597000000</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
+      <c r="AK27">
         <v>0</v>
       </c>
       <c r="AM27">
         <v>0</v>
       </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:39">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:40">
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
+        <v>226733000000</v>
+      </c>
+      <c r="C28">
         <v>224684000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>226712000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>192097000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>188409000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>187007000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>185104000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>187217000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>183349000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>179228000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>179874000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>176719000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>165733000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>164362000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>162749000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>161342000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>160518000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>158598000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>155431000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>153453000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>152336000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>151356000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>151407000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>150285000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>149520000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>147015000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>145183000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>140077000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>138208000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>135447000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>137251000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>136535000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>132857000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>131341000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>130279000000</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
+      <c r="AK28">
         <v>0</v>
       </c>
       <c r="AM28">
         <v>0</v>
       </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:39">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:40">
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
+        <v>492282000</v>
+      </c>
+      <c r="C29">
         <v>495844000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>495650000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>423032000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>422137000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>426200000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>426083000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>425930000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>427210000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>427073000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>426825000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>426587000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>433121000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>443913000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>457904000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>461117000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>466008000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>474121000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>484055000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>487551000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>490813000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>499505000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>505880000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>509516000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>511955000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>518148000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>529095000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>528934000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>527774000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>527637000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>537150000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>547491000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>545884000</v>
-      </c>
-      <c r="AH29">
-        <v>559998000</v>
       </c>
       <c r="AI29">
         <v>559998000</v>
       </c>
+      <c r="AJ29">
+        <v>559998000</v>
+      </c>
     </row>
-    <row r="30" spans="1:39">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>2050000</v>
+    <row r="30" spans="1:40">
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C30">
         <v>2050000</v>
@@ -3419,7 +3602,7 @@
         <v>2050000</v>
       </c>
       <c r="H30">
-        <v>2000000</v>
+        <v>2050000</v>
       </c>
       <c r="I30">
         <v>2000000</v>
@@ -3431,348 +3614,360 @@
         <v>2000000</v>
       </c>
       <c r="L30">
-        <v>1600000</v>
+        <v>2000000</v>
       </c>
       <c r="M30">
         <v>1600000</v>
       </c>
-      <c r="Q30">
+      <c r="N30">
+        <v>1600000</v>
+      </c>
+      <c r="R30">
         <v>850000</v>
       </c>
-      <c r="U30">
-        <v>250000</v>
-      </c>
-      <c r="AD30">
+      <c r="V30">
         <v>250000</v>
       </c>
       <c r="AE30">
         <v>250000</v>
       </c>
-      <c r="AH30">
-        <v>0</v>
+      <c r="AF30">
+        <v>250000</v>
       </c>
       <c r="AI30">
         <v>0</v>
       </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:39">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:40">
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
+        <v>15320000000</v>
+      </c>
+      <c r="C31">
         <v>14986000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>16247000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>14842000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>16304000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>16358000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>16149000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>15603000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>15623000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>15419000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>15368000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>14900000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>15157000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>14807000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>14977000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>14491000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>13894000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>13330000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>13580000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>13172000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>13383000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>13222000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>13177000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>12971000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>12871000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>13305000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>13350000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>13089000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>12770000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>12724000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>12710000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>12688000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>12392000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>12507000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>12721000000</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:40">
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
+        <v>5037000000</v>
+      </c>
+      <c r="C32">
         <v>8130000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>11392000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-3779000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-390000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-5878000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-4258000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-4520000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-2940000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>569000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>2292000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>14911000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>10364000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>8806000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>8317000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>9122000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>11703000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>11506000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>9662000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>9485000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>8541000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>10993000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>8554000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>7436000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>8647000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>8267000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>7428000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>7646000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>6445000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>2034000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>835000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>-1715000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>996000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>-1119000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>-3933000000</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:36">
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
+        <v>15887000000</v>
+      </c>
+      <c r="C33">
         <v>16551000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>18375000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>6842000000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>9084000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>8127000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>8784000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>10448000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>10099000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>10113000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>10213000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>19249000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>14047000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>12806000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>11538000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>11725000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>15925000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>15639000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>13641000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>13486000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>11765000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>13400000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>13154000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>11780000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>12790000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>11902000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>11810000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>10035000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>9886000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>4153000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>3890000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>3904000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>4642000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>2062000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>1732000000</v>
       </c>
     </row>
